--- a/aboutData/TechnologyData.xlsx
+++ b/aboutData/TechnologyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23355" windowHeight="11550"/>
+    <workbookView windowWidth="21330" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>id</t>
   </si>
@@ -78,15 +78,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>assetName</t>
+  </si>
+  <si>
     <t>technologyLv</t>
   </si>
   <si>
     <t>preTechnologyId</t>
   </si>
   <si>
-    <t>cost</t>
-  </si>
-  <si>
     <t>effect00</t>
   </si>
   <si>
@@ -105,12 +105,6 @@
     <t>result02</t>
   </si>
   <si>
-    <t>effect03</t>
-  </si>
-  <si>
-    <t>result03</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -120,16 +114,16 @@
     <t>唯一Id索引</t>
   </si>
   <si>
-    <t>科技名字</t>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>科技名称</t>
   </si>
   <si>
     <t>科技等级</t>
   </si>
   <si>
     <t>前置科技</t>
-  </si>
-  <si>
-    <t>花费金币</t>
   </si>
   <si>
     <t>直接作用类型</t>
@@ -299,12 +293,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,7 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,7 +340,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,128 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -520,25 +507,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,151 +651,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,6 +698,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,8 +751,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -755,11 +777,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -778,186 +798,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,193 +1318,163 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
     <col min="2" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="8" width="14.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="14.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:14">
+    <row r="1" ht="15" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+    </row>
+    <row r="2" ht="15" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="15" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:14">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:11">
+      <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:14">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1529,30 +1486,27 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>150000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>150001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1561,26 +1515,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="G7" s="1">
-        <v>106</v>
-      </c>
-      <c r="H7" s="1">
         <v>140008</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>150002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1589,24 +1539,21 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="G8" s="1">
-        <v>108</v>
-      </c>
-      <c r="H8" s="1">
         <v>120001</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:8">
+    <row r="9" s="1" customFormat="1" spans="1:7">
       <c r="A9" s="1">
         <v>150003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1615,24 +1562,21 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="G9" s="1">
-        <v>109</v>
-      </c>
-      <c r="H9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:8">
+    <row r="10" s="1" customFormat="1" spans="1:7">
       <c r="A10" s="1">
         <v>150004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1641,24 +1585,21 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1">
-        <v>108</v>
-      </c>
-      <c r="H10" s="1">
         <v>120002</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:8">
+    <row r="11" s="1" customFormat="1" spans="1:7">
       <c r="A11" s="1">
         <v>150005</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1667,24 +1608,21 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="G11" s="1">
-        <v>108</v>
-      </c>
-      <c r="H11" s="1">
         <v>120000</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:6">
+    <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="1">
         <v>150006</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1692,28 +1630,22 @@
       <c r="E12" s="1">
         <v>150001</v>
       </c>
-      <c r="F12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="1">
         <v>150007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1">
         <v>150006</v>
-      </c>
-      <c r="F13" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
@@ -1721,10 +1653,10 @@
         <v>150008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1733,15 +1665,15 @@
         <v>150001</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:8">
+    <row r="15" s="1" customFormat="1" spans="1:7">
       <c r="A15" s="1">
         <v>150009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1749,22 +1681,22 @@
       <c r="E15" s="1">
         <v>150008</v>
       </c>
+      <c r="F15" s="1">
+        <v>106</v>
+      </c>
       <c r="G15" s="1">
-        <v>106</v>
-      </c>
-      <c r="H15" s="1">
         <v>140007</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:8">
+    <row r="16" s="1" customFormat="1" spans="1:7">
       <c r="A16" s="1">
         <v>150010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1772,10 +1704,10 @@
       <c r="E16" s="1">
         <v>150002</v>
       </c>
+      <c r="F16" s="1">
+        <v>107</v>
+      </c>
       <c r="G16" s="1">
-        <v>107</v>
-      </c>
-      <c r="H16" s="1">
         <v>110003</v>
       </c>
     </row>
@@ -1784,10 +1716,10 @@
         <v>150011</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1796,15 +1728,15 @@
         <v>150010</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:8">
+    <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="1">
         <v>150012</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1812,22 +1744,22 @@
       <c r="E18" s="1">
         <v>150002</v>
       </c>
+      <c r="F18" s="1">
+        <v>106</v>
+      </c>
       <c r="G18" s="1">
-        <v>106</v>
-      </c>
-      <c r="H18" s="1">
         <v>140002</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:8">
+    <row r="19" s="1" customFormat="1" spans="1:7">
       <c r="A19" s="1">
         <v>150013</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1835,22 +1767,22 @@
       <c r="E19" s="1">
         <v>150003</v>
       </c>
+      <c r="F19" s="1">
+        <v>107</v>
+      </c>
       <c r="G19" s="1">
-        <v>107</v>
-      </c>
-      <c r="H19" s="1">
         <v>110007</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
+    <row r="20" s="1" customFormat="1" spans="1:9">
       <c r="A20" s="1">
         <v>150014</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1858,16 +1790,16 @@
       <c r="E20" s="1">
         <v>150013</v>
       </c>
+      <c r="F20" s="1">
+        <v>106</v>
+      </c>
       <c r="G20" s="1">
-        <v>106</v>
+        <v>140003</v>
       </c>
       <c r="H20" s="1">
-        <v>140003</v>
+        <v>107</v>
       </c>
       <c r="I20" s="1">
-        <v>107</v>
-      </c>
-      <c r="J20" s="1">
         <v>110008</v>
       </c>
     </row>
@@ -1876,10 +1808,10 @@
         <v>150015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1888,15 +1820,15 @@
         <v>150003</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
+    <row r="22" s="1" customFormat="1" spans="1:9">
       <c r="A22" s="1">
         <v>150016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -1904,28 +1836,28 @@
       <c r="E22" s="1">
         <v>150015</v>
       </c>
+      <c r="F22" s="1">
+        <v>106</v>
+      </c>
       <c r="G22" s="1">
-        <v>106</v>
+        <v>140010</v>
       </c>
       <c r="H22" s="1">
-        <v>140010</v>
+        <v>110</v>
       </c>
       <c r="I22" s="1">
-        <v>110</v>
-      </c>
-      <c r="J22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:12">
+    <row r="23" s="1" customFormat="1" spans="1:11">
       <c r="A23" s="1">
         <v>150017</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1933,34 +1865,34 @@
       <c r="E23" s="1">
         <v>150004</v>
       </c>
+      <c r="F23" s="1">
+        <v>106</v>
+      </c>
       <c r="G23" s="1">
-        <v>106</v>
+        <v>140012</v>
       </c>
       <c r="H23" s="1">
-        <v>140012</v>
+        <v>107</v>
       </c>
       <c r="I23" s="1">
-        <v>107</v>
+        <v>110001</v>
       </c>
       <c r="J23" s="1">
-        <v>110001</v>
+        <v>109</v>
       </c>
       <c r="K23" s="1">
-        <v>109</v>
-      </c>
-      <c r="L23" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:10">
+    <row r="24" s="1" customFormat="1" spans="1:9">
       <c r="A24" s="1">
         <v>150018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1968,28 +1900,28 @@
       <c r="E24" s="1">
         <v>150017</v>
       </c>
+      <c r="F24" s="1">
+        <v>106</v>
+      </c>
       <c r="G24" s="1">
-        <v>106</v>
+        <v>140013</v>
       </c>
       <c r="H24" s="1">
-        <v>140013</v>
+        <v>109</v>
       </c>
       <c r="I24" s="1">
-        <v>109</v>
-      </c>
-      <c r="J24" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:8">
+    <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="1">
         <v>150019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1997,22 +1929,22 @@
       <c r="E25" s="1">
         <v>150004</v>
       </c>
+      <c r="F25" s="1">
+        <v>108</v>
+      </c>
       <c r="G25" s="1">
-        <v>108</v>
-      </c>
-      <c r="H25" s="1">
         <v>120003</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:8">
+    <row r="26" s="1" customFormat="1" spans="1:7">
       <c r="A26" s="1">
         <v>150020</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -2020,10 +1952,10 @@
       <c r="E26" s="1">
         <v>150019</v>
       </c>
+      <c r="F26" s="1">
+        <v>107</v>
+      </c>
       <c r="G26" s="1">
-        <v>107</v>
-      </c>
-      <c r="H26" s="1">
         <v>110009</v>
       </c>
     </row>
@@ -2032,10 +1964,10 @@
         <v>150021</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -2049,10 +1981,10 @@
         <v>150022</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -2061,15 +1993,15 @@
         <v>150021</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
+    <row r="29" s="1" customFormat="1" spans="1:9">
       <c r="A29" s="1">
         <v>150023</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -2077,28 +2009,28 @@
       <c r="E29" s="1">
         <v>150005</v>
       </c>
+      <c r="F29" s="1">
+        <v>108</v>
+      </c>
       <c r="G29" s="1">
-        <v>108</v>
+        <v>120004</v>
       </c>
       <c r="H29" s="1">
-        <v>120004</v>
+        <v>107</v>
       </c>
       <c r="I29" s="1">
-        <v>107</v>
-      </c>
-      <c r="J29" s="1">
         <v>110005</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:10">
+    <row r="30" s="1" customFormat="1" spans="1:9">
       <c r="A30" s="1">
         <v>150024</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>
@@ -2106,16 +2038,16 @@
       <c r="E30" s="1">
         <v>150023</v>
       </c>
+      <c r="F30" s="1">
+        <v>106</v>
+      </c>
       <c r="G30" s="1">
-        <v>106</v>
+        <v>140006</v>
       </c>
       <c r="H30" s="1">
-        <v>140006</v>
+        <v>107</v>
       </c>
       <c r="I30" s="1">
-        <v>107</v>
-      </c>
-      <c r="J30" s="1">
         <v>110006</v>
       </c>
     </row>

--- a/aboutData/TechnologyData.xlsx
+++ b/aboutData/TechnologyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21330" windowHeight="11550"/>
+    <workbookView windowWidth="19740" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>随机1级科技</t>
+  </si>
+  <si>
+    <t>训练勇士</t>
   </si>
   <si>
     <t>马匹</t>
@@ -295,8 +298,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -326,28 +329,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,6 +373,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -370,9 +419,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,17 +449,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,66 +465,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -507,187 +510,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,34 +704,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -751,10 +732,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -778,8 +766,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,145 +809,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,8 +1323,8 @@
   <sheetPr/>
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1487,15 +1490,27 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>150000</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="1">
         <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>106</v>
+      </c>
+      <c r="G6" s="1">
+        <v>140001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1503,10 +1518,10 @@
         <v>150001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -1527,10 +1542,10 @@
         <v>150002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1550,10 +1565,10 @@
         <v>150003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1573,10 +1588,10 @@
         <v>150004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1596,10 +1611,10 @@
         <v>150005</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1619,10 +1634,10 @@
         <v>150006</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1">
         <v>2</v>
@@ -1636,10 +1651,10 @@
         <v>150007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
@@ -1653,10 +1668,10 @@
         <v>150008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
@@ -1670,10 +1685,10 @@
         <v>150009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -1693,10 +1708,10 @@
         <v>150010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
@@ -1716,10 +1731,10 @@
         <v>150011</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
@@ -1733,10 +1748,10 @@
         <v>150012</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
         <v>2</v>
@@ -1756,10 +1771,10 @@
         <v>150013</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1779,10 +1794,10 @@
         <v>150014</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1808,10 +1823,10 @@
         <v>150015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>2</v>
@@ -1825,10 +1840,10 @@
         <v>150016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
@@ -1854,10 +1869,10 @@
         <v>150017</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1889,10 +1904,10 @@
         <v>150018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1918,10 +1933,10 @@
         <v>150019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1">
         <v>2</v>
@@ -1941,10 +1956,10 @@
         <v>150020</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
@@ -1964,10 +1979,10 @@
         <v>150021</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1981,10 +1996,10 @@
         <v>150022</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
@@ -1998,10 +2013,10 @@
         <v>150023</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1">
         <v>2</v>
@@ -2027,10 +2042,10 @@
         <v>150024</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30" s="1">
         <v>3</v>

--- a/aboutData/TechnologyData.xlsx
+++ b/aboutData/TechnologyData.xlsx
@@ -296,8 +296,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -329,7 +329,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,20 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,14 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -381,45 +427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,33 +443,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,6 +465,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -510,25 +510,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,13 +672,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,138 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,11 +706,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,16 +740,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -759,15 +768,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +809,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +821,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/aboutData/TechnologyData.xlsx
+++ b/aboutData/TechnologyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="11550"/>
+    <workbookView windowWidth="22515" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,9 @@
     <t>assetName</t>
   </si>
   <si>
+    <t>iconName</t>
+  </si>
+  <si>
     <t>technologyLv</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     <t>科技名称</t>
   </si>
   <si>
+    <t>图片资源名称</t>
+  </si>
+  <si>
     <t>科技等级</t>
   </si>
   <si>
@@ -147,148 +153,223 @@
     <t>训练勇士</t>
   </si>
   <si>
+    <t>SGI_01</t>
+  </si>
+  <si>
     <t>马匹</t>
   </si>
   <si>
     <t>Riding</t>
   </si>
   <si>
+    <t>SGI_02</t>
+  </si>
+  <si>
     <t>采集</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
+    <t>SGI_03</t>
+  </si>
+  <si>
     <t>攀登</t>
   </si>
   <si>
     <t>Climbing</t>
   </si>
   <si>
+    <t>SGI_04</t>
+  </si>
+  <si>
     <t>钓鱼</t>
   </si>
   <si>
     <t>Fishing</t>
   </si>
   <si>
+    <t>SGI_05</t>
+  </si>
+  <si>
     <t>打猎</t>
   </si>
   <si>
     <t>Hunting</t>
   </si>
   <si>
+    <t>SGI_06</t>
+  </si>
+  <si>
     <t>道路</t>
   </si>
   <si>
     <t>Roads</t>
   </si>
   <si>
+    <t>SGI_07</t>
+  </si>
+  <si>
     <t>贸易</t>
   </si>
   <si>
     <t>Trads</t>
   </si>
   <si>
+    <t>SGI_08</t>
+  </si>
+  <si>
     <t>自由精神</t>
   </si>
   <si>
     <t>FreeSprite</t>
   </si>
   <si>
+    <t>SGI_09</t>
+  </si>
+  <si>
     <t>骑士制度</t>
   </si>
   <si>
     <t>Chivalry</t>
   </si>
   <si>
+    <t>SGI_10</t>
+  </si>
+  <si>
     <t>农业</t>
   </si>
   <si>
     <t>Farming</t>
   </si>
   <si>
+    <t>SGI_11</t>
+  </si>
+  <si>
     <t>建筑业</t>
   </si>
   <si>
     <t>Construction</t>
   </si>
   <si>
+    <t>SGI_12</t>
+  </si>
+  <si>
     <t>盾牌</t>
   </si>
   <si>
     <t>Shields</t>
   </si>
   <si>
+    <t>SGI_13</t>
+  </si>
+  <si>
     <t>金属</t>
   </si>
   <si>
     <t>Mining</t>
   </si>
   <si>
+    <t>SGI_14</t>
+  </si>
+  <si>
     <t>锻造</t>
   </si>
   <si>
     <t>Smithery</t>
   </si>
   <si>
+    <t>SGI_15</t>
+  </si>
+  <si>
     <t>冥想</t>
   </si>
   <si>
     <t>Meditation</t>
   </si>
   <si>
+    <t>SGI_16</t>
+  </si>
+  <si>
     <t>哲学</t>
   </si>
   <si>
     <t>Philosophy</t>
   </si>
   <si>
+    <t>SGI_17</t>
+  </si>
+  <si>
     <t>航行</t>
   </si>
   <si>
     <t>Sailing</t>
   </si>
   <si>
+    <t>SGI_18</t>
+  </si>
+  <si>
     <t>远航</t>
   </si>
   <si>
     <t>Navigation</t>
   </si>
   <si>
+    <t>SGI_19</t>
+  </si>
+  <si>
     <t>捕鲸</t>
   </si>
   <si>
     <t>Whaling</t>
   </si>
   <si>
+    <t>SGI_20</t>
+  </si>
+  <si>
     <t>水上运动</t>
   </si>
   <si>
     <t>Aquatism</t>
   </si>
   <si>
+    <t>SGI_21</t>
+  </si>
+  <si>
     <t>射箭</t>
   </si>
   <si>
     <t>Archery</t>
   </si>
   <si>
+    <t>SGI_22</t>
+  </si>
+  <si>
     <t>通灵</t>
   </si>
   <si>
     <t>Spiritualism</t>
   </si>
   <si>
+    <t>SGI_23</t>
+  </si>
+  <si>
     <t>森林</t>
   </si>
   <si>
     <t>Forestry</t>
   </si>
   <si>
+    <t>SGI_24</t>
+  </si>
+  <si>
     <t>数学</t>
   </si>
   <si>
     <t>Mathematics</t>
+  </si>
+  <si>
+    <t>SGI_25</t>
   </si>
 </sst>
 </file>
@@ -296,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -337,6 +418,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,6 +462,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -358,23 +507,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,75 +539,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -510,121 +591,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,61 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,11 +785,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,8 +803,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,8 +827,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,32 +859,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -809,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,133 +902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1321,25 +1402,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="2" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="8" width="14.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:11">
+    <row r="1" ht="15" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,111 +1454,123 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" ht="15" spans="1:11">
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:11">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:11">
+        <v>21</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:12">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1489,580 +1582,656 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>150000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>106</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>140001</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>150001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>106</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>140008</v>
       </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>150002</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>108</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>120001</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
+    <row r="9" s="1" customFormat="1" spans="1:8">
       <c r="A9" s="1">
         <v>150003</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>109</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
+    <row r="10" s="1" customFormat="1" spans="1:8">
       <c r="A10" s="1">
         <v>150004</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>108</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>120002</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+    <row r="11" s="1" customFormat="1" spans="1:8">
       <c r="A11" s="1">
         <v>150005</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1">
+        <v>41</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>108</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>120000</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
+    <row r="12" s="1" customFormat="1" spans="1:6">
       <c r="A12" s="1">
         <v>150006</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1">
         <v>2</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>150001</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
+    <row r="13" s="1" customFormat="1" spans="1:6">
       <c r="A13" s="1">
         <v>150007</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <v>150006</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
+    <row r="14" s="1" customFormat="1" spans="1:6">
       <c r="A14" s="1">
         <v>150008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>150001</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    <row r="15" s="1" customFormat="1" spans="1:8">
       <c r="A15" s="1">
         <v>150009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>150008</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>106</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>140007</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
+    <row r="16" s="1" customFormat="1" spans="1:8">
       <c r="A16" s="1">
         <v>150010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1">
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>150002</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>107</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>110003</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
+    <row r="17" s="1" customFormat="1" spans="1:6">
       <c r="A17" s="1">
         <v>150011</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="1">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="1">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>150010</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
+    <row r="18" s="1" customFormat="1" spans="1:8">
       <c r="A18" s="1">
         <v>150012</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="1">
+        <v>62</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>150002</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>106</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>140002</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
+    <row r="19" s="1" customFormat="1" spans="1:8">
       <c r="A19" s="1">
         <v>150013</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="1">
         <v>2</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>150003</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>107</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>110007</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:9">
+    <row r="20" s="1" customFormat="1" spans="1:10">
       <c r="A20" s="1">
         <v>150014</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>150013</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>106</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>140003</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>107</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>110008</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1">
         <v>150015</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <v>150003</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:9">
+    <row r="22" s="1" customFormat="1" spans="1:10">
       <c r="A22" s="1">
         <v>150016</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="1">
+        <v>74</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <v>150015</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G22" s="1">
         <v>106</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>140010</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>110</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:11">
+    <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="1">
         <v>150017</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1">
+        <v>77</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <v>150004</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G23" s="1">
         <v>106</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>140012</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>107</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>110001</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>109</v>
       </c>
-      <c r="K23" s="1">
+      <c r="L23" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:9">
+    <row r="24" s="1" customFormat="1" spans="1:10">
       <c r="A24" s="1">
         <v>150018</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <v>150017</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G24" s="1">
         <v>106</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>140013</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>109</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J24" s="1">
         <v>-3</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:7">
+    <row r="25" s="1" customFormat="1" spans="1:8">
       <c r="A25" s="1">
         <v>150019</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="1">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <v>150004</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G25" s="1">
         <v>108</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>120003</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
+    <row r="26" s="1" customFormat="1" spans="1:8">
       <c r="A26" s="1">
         <v>150020</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1">
+        <v>86</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <v>150019</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G26" s="1">
         <v>107</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>110009</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+    <row r="27" s="1" customFormat="1" spans="1:6">
       <c r="A27" s="1">
         <v>150021</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="1">
+        <v>89</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="1">
         <v>2</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <v>150005</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="1" customFormat="1" spans="1:6">
       <c r="A28" s="1">
         <v>150022</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="1">
+        <v>92</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="1">
         <v>3</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <v>150021</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:9">
+    <row r="29" s="1" customFormat="1" spans="1:10">
       <c r="A29" s="1">
         <v>150023</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1">
+        <v>95</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1">
         <v>2</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <v>150005</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="1">
         <v>108</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>120004</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>107</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>110005</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:9">
+    <row r="30" s="1" customFormat="1" spans="1:10">
       <c r="A30" s="1">
         <v>150024</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <v>150023</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="1">
         <v>106</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>140006</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>107</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="1">
         <v>110006</v>
       </c>
     </row>

--- a/aboutData/TechnologyData.xlsx
+++ b/aboutData/TechnologyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="11100"/>
+    <workbookView windowWidth="19065" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -409,6 +409,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -417,7 +463,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,82 +538,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -515,14 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -530,29 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -591,13 +591,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,91 +753,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,73 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,26 +785,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,23 +833,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,25 +868,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -890,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,133 +902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I11" sqref="I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/aboutData/TechnologyData.xlsx
+++ b/aboutData/TechnologyData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19065" windowHeight="10815"/>
+    <workbookView windowWidth="23310" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,9 +378,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -407,6 +407,88 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -418,10 +500,48 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,126 +553,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -591,19 +591,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,163 +771,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,32 +785,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,8 +814,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,7 +824,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,18 +847,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -882,6 +867,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -890,10 +890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,133 +902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1405,7 +1405,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I10:I11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
